--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1386801.289072521</v>
+        <v>1382789.486340425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518386</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140343</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4534589.126871838</v>
+        <v>4534589.126871839</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>249.0950382744061</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9025688081285</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>81.78003446239035</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>117.6954882440754</v>
       </c>
       <c r="U13" t="n">
         <v>277.3339849899809</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>349.5172411744277</v>
       </c>
       <c r="W14" t="n">
-        <v>389.7838137938491</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H15" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.75492808270077</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>144.6670214887083</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>395.0068731377291</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>12.38530143409587</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H18" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>81.81915456326755</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>201.2572775289341</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>331.7414439122369</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>135.9957333697994</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.11671897770418</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>21.35479149030475</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>311.7731352223537</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>14.50535606500118</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2496,7 +2496,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I25" t="n">
-        <v>71.96559361603957</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8999186087154</v>
+        <v>152.8999186087157</v>
       </c>
       <c r="T25" t="n">
         <v>237.097464026797</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>218.0143247137616</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>314.457623828986</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899815</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>314.7484699985142</v>
       </c>
       <c r="X29" t="n">
-        <v>248.5444801653381</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.48994447064862</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S31" t="n">
-        <v>152.8999186087154</v>
+        <v>152.8999186087157</v>
       </c>
       <c r="T31" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3034,16 +3034,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>54.88883169849889</v>
+        <v>354.7715487518855</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064907</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.27997233044464</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>402.7669811633409</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>44.63220474137479</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>93.46535974322643</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>32.16050752109506</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>103.1868077687733</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>90.56812210791077</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
         <v>71.96559361603954</v>
@@ -3714,7 +3714,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>27.98971059783542</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>351.0788748658051</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.1379306251023</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>6.192301772151485</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.811274107490808</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>285.1620201451063</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>412.8142347894076</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>33.00099667026274</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>49.61548843462796</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0417859295901</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="C11" t="n">
-        <v>537.1410559428903</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="D11" t="n">
-        <v>537.1410559428903</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="E11" t="n">
-        <v>537.1410559428903</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F11" t="n">
-        <v>537.1410559428903</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G11" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072047</v>
@@ -5047,10 +5047,10 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5062,31 +5062,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R11" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794524</v>
+        <v>1820.947923427121</v>
       </c>
       <c r="V11" t="n">
-        <v>1780.281499920773</v>
+        <v>1820.947923427121</v>
       </c>
       <c r="W11" t="n">
-        <v>1383.89015022112</v>
+        <v>1424.556573727468</v>
       </c>
       <c r="X11" t="n">
-        <v>1383.89015022112</v>
+        <v>1424.556573727468</v>
       </c>
       <c r="Y11" t="n">
-        <v>1383.89015022112</v>
+        <v>1424.556573727468</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426541</v>
+        <v>404.4659091426538</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109023</v>
+        <v>552.2568635109021</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333022</v>
+        <v>758.507453133302</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N12" t="n">
         <v>1254.962719722999</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>871.4133485834261</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="C13" t="n">
-        <v>699.4407854623421</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="D13" t="n">
-        <v>536.1240125891128</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="E13" t="n">
-        <v>369.9158067419663</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F13" t="n">
-        <v>198.0540325165267</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0540325165267</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H13" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L13" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M13" t="n">
-        <v>1409.031211019159</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.526466160679</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232012</v>
+        <v>1688.196505394377</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>2085.522255615831</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098197</v>
       </c>
       <c r="T13" t="n">
-        <v>1898.278526888668</v>
+        <v>1857.886721538525</v>
       </c>
       <c r="U13" t="n">
-        <v>1618.14318851495</v>
+        <v>1577.751383164807</v>
       </c>
       <c r="V13" t="n">
-        <v>1336.431721122979</v>
+        <v>1296.039915772835</v>
       </c>
       <c r="W13" t="n">
-        <v>1061.579317295492</v>
+        <v>1021.187511945349</v>
       </c>
       <c r="X13" t="n">
-        <v>1061.579317295492</v>
+        <v>778.6236153911536</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.579317295492</v>
+        <v>778.6236153911536</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1744.049890760332</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="C14" t="n">
-        <v>1317.149160773633</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D14" t="n">
         <v>893.8565399586328</v>
@@ -5266,13 +5266,13 @@
         <v>467.8796001064903</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I14" t="n">
         <v>84.39494262103608</v>
@@ -5281,49 +5281,49 @@
         <v>222.2360596072042</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794523</v>
+        <v>1726.094539990442</v>
       </c>
       <c r="W14" t="n">
-        <v>1744.049890760332</v>
+        <v>1726.094539990442</v>
       </c>
       <c r="X14" t="n">
-        <v>1744.049890760332</v>
+        <v>1726.094539990442</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.049890760332</v>
+        <v>1320.757269945333</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426533</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109017</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333015</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P15" t="n">
-        <v>1399.453043391742</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1773.734692887499</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.071714973765</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C16" t="n">
-        <v>508.071714973765</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D16" t="n">
-        <v>344.7549421005357</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E16" t="n">
-        <v>178.5467362533892</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F16" t="n">
-        <v>178.5467362533892</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484812</v>
       </c>
       <c r="K16" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991143</v>
       </c>
       <c r="L16" t="n">
-        <v>481.8999867656335</v>
+        <v>481.8999867656341</v>
       </c>
       <c r="M16" t="n">
-        <v>1010.998288177278</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.526466160678</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O16" t="n">
-        <v>2003.682813232012</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S16" t="n">
-        <v>2137.770914794523</v>
+        <v>1976.771053098197</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.278526888668</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U16" t="n">
-        <v>1618.14318851495</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.431721122978</v>
+        <v>1591.150360658293</v>
       </c>
       <c r="W16" t="n">
-        <v>1061.579317295491</v>
+        <v>1316.297956830806</v>
       </c>
       <c r="X16" t="n">
-        <v>819.0154207412965</v>
+        <v>1316.297956830806</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.6726524310385</v>
+        <v>1089.955188520548</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1317.149160773633</v>
+        <v>1717.922550502994</v>
       </c>
       <c r="C17" t="n">
-        <v>1317.149160773633</v>
+        <v>1291.021820516294</v>
       </c>
       <c r="D17" t="n">
-        <v>893.8565399586328</v>
+        <v>867.7291997012946</v>
       </c>
       <c r="E17" t="n">
-        <v>467.8796001064903</v>
+        <v>441.7522598491522</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L17" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848327</v>
       </c>
       <c r="M17" t="n">
         <v>1017.95803136565</v>
@@ -5530,13 +5530,13 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
         <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R17" t="n">
         <v>2137.770914794524</v>
@@ -5545,22 +5545,22 @@
         <v>2137.770914794524</v>
       </c>
       <c r="T17" t="n">
-        <v>2125.260509305538</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U17" t="n">
-        <v>2125.260509305538</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V17" t="n">
-        <v>2125.260509305538</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W17" t="n">
-        <v>1728.869159605885</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.149160773633</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y17" t="n">
-        <v>1317.149160773633</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186403</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>446.801363225996</v>
       </c>
       <c r="L18" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M18" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N18" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>881.4713517589686</v>
+        <v>635.4435721595278</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4987886378846</v>
+        <v>463.4710090384438</v>
       </c>
       <c r="D19" t="n">
-        <v>546.1820157646553</v>
+        <v>463.4710090384438</v>
       </c>
       <c r="E19" t="n">
-        <v>379.9738099175088</v>
+        <v>297.2628031912973</v>
       </c>
       <c r="F19" t="n">
-        <v>208.1120356920692</v>
+        <v>125.4010289658577</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J19" t="n">
-        <v>129.9451069259085</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>458.9956455541967</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L19" t="n">
-        <v>944.8790293374096</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M19" t="n">
-        <v>1473.977330749054</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N19" t="n">
-        <v>1588.472585890574</v>
+        <v>1606.073081164924</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P19" t="n">
         <v>2088.252358880159</v>
@@ -5697,28 +5697,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.326552563498</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="T19" t="n">
-        <v>1743.834164657643</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="U19" t="n">
-        <v>1540.543985335487</v>
+        <v>1851.080076955504</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.543985335487</v>
+        <v>1569.368609563533</v>
       </c>
       <c r="W19" t="n">
-        <v>1540.543985335487</v>
+        <v>1294.516205736046</v>
       </c>
       <c r="X19" t="n">
-        <v>1297.980088781292</v>
+        <v>1051.952309181851</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.637320471034</v>
+        <v>825.6095408715935</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2137.770914794524</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C20" t="n">
-        <v>1710.870184807824</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I20" t="n">
         <v>84.39494262103631</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072048</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
@@ -5770,34 +5770,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977128</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772931</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N21" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>845.4008954910278</v>
+        <v>402.5066837189742</v>
       </c>
       <c r="C22" t="n">
-        <v>673.4283323699437</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="D22" t="n">
-        <v>510.1115594967144</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="E22" t="n">
-        <v>343.903353649568</v>
+        <v>64.32591475074378</v>
       </c>
       <c r="F22" t="n">
-        <v>343.903353649568</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G22" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J22" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>491.6854607613571</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L22" t="n">
         <v>601.1799509534052</v>
@@ -5922,40 +5922,40 @@
         <v>1130.27825236505</v>
       </c>
       <c r="N22" t="n">
-        <v>1642.80643034845</v>
+        <v>1244.77350750657</v>
       </c>
       <c r="O22" t="n">
-        <v>1745.26045311658</v>
+        <v>1724.929854577904</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="R22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.834164657643</v>
+        <v>1898.278526888669</v>
       </c>
       <c r="U22" t="n">
-        <v>1463.698826283925</v>
+        <v>1618.143188514951</v>
       </c>
       <c r="V22" t="n">
-        <v>1181.987358891953</v>
+        <v>1336.43172112298</v>
       </c>
       <c r="W22" t="n">
-        <v>907.1349550644663</v>
+        <v>1061.579317295493</v>
       </c>
       <c r="X22" t="n">
-        <v>907.1349550644663</v>
+        <v>819.0154207412978</v>
       </c>
       <c r="Y22" t="n">
-        <v>907.1349550644663</v>
+        <v>592.6726524310399</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1334.464433559304</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C23" t="n">
-        <v>1334.464433559304</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D23" t="n">
-        <v>911.1718127443041</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>485.1948728921618</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>631.2805511005022</v>
+        <v>596.1507915280426</v>
       </c>
       <c r="K23" t="n">
-        <v>1150.594152566822</v>
+        <v>810.9839034818385</v>
       </c>
       <c r="L23" t="n">
-        <v>1423.110161090654</v>
+        <v>1083.49991200567</v>
       </c>
       <c r="M23" t="n">
-        <v>1731.483012371471</v>
+        <v>1391.872763286487</v>
       </c>
       <c r="N23" t="n">
-        <v>2045.595402641462</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O23" t="n">
-        <v>2340.035845641986</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982948</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q23" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556174</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V23" t="n">
-        <v>2159.650067895944</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="W23" t="n">
-        <v>2159.650067895944</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="X23" t="n">
-        <v>2159.650067895944</v>
+        <v>2988.882679264965</v>
       </c>
       <c r="Y23" t="n">
-        <v>1754.312797850834</v>
+        <v>2583.545409219855</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283255</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965737</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6144,7 +6144,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
@@ -6153,16 +6153,16 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P25" t="n">
         <v>2802.642500785833</v>
@@ -6171,7 +6171,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
         <v>2842.53469238177</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2234.325140372093</v>
+        <v>1909.373783545413</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.108650762233</v>
+        <v>1482.473053558713</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.816029947233</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="E26" t="n">
         <v>1164.839090095091</v>
@@ -6220,31 +6220,31 @@
         <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>1150.594152566822</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>1423.110161090654</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710694</v>
       </c>
       <c r="V26" t="n">
-        <v>2646.045139204346</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="W26" t="n">
-        <v>2646.045139204346</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="X26" t="n">
-        <v>2234.325140372093</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="Y26" t="n">
-        <v>2234.325140372093</v>
+        <v>2329.222147836943</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G27" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H27" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>421.7811819283255</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965737</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6363,16 +6363,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G28" t="n">
         <v>268.554527843141</v>
@@ -6381,7 +6381,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J28" t="n">
         <v>179.9501949187404</v>
@@ -6390,16 +6390,16 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493046</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P28" t="n">
         <v>2802.642500785833</v>
@@ -6408,13 +6408,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1740.404424113326</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="C29" t="n">
-        <v>1313.503694126626</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D29" t="n">
         <v>1313.503694126626</v>
@@ -6460,28 +6460,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>500.7590897595142</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>715.59220171331</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>988.108210237142</v>
       </c>
       <c r="M29" t="n">
-        <v>1239.634105008736</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N29" t="n">
-        <v>1553.746495278727</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O29" t="n">
-        <v>1848.186938279251</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P29" t="n">
-        <v>2093.878631620213</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2387.850804283017</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.459454583364</v>
+        <v>2156.644679233155</v>
       </c>
       <c r="X29" t="n">
-        <v>1740.404424113326</v>
+        <v>2156.644679233155</v>
       </c>
       <c r="Y29" t="n">
-        <v>1740.404424113326</v>
+        <v>2156.644679233155</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6627,10 +6627,10 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302415</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
         <v>1925.160403493045</v>
@@ -6648,7 +6648,7 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>542.4146854101799</v>
+        <v>2119.720263295383</v>
       </c>
       <c r="C32" t="n">
-        <v>115.51395542348</v>
+        <v>1692.819533308683</v>
       </c>
       <c r="D32" t="n">
-        <v>115.51395542348</v>
+        <v>1269.526912493684</v>
       </c>
       <c r="E32" t="n">
-        <v>115.51395542348</v>
+        <v>843.5499726415411</v>
       </c>
       <c r="F32" t="n">
-        <v>115.51395542348</v>
+        <v>418.4257908309413</v>
       </c>
       <c r="G32" t="n">
         <v>60.07069108156194</v>
@@ -6697,28 +6697,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2073.088549286173</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2318.780242627136</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>2533.201083152476</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2175.711668278725</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>1779.320318579072</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X32" t="n">
-        <v>1367.60031974682</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.26304970171</v>
+        <v>2539.568627586913</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P33" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.297898185135</v>
       </c>
       <c r="D34" t="n">
-        <v>771.981125311906</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647595</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6864,7 +6864,7 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>994.8841173302415</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M34" t="n">
         <v>1524.395656430017</v>
@@ -6873,10 +6873,10 @@
         <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2517.08018148475</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6885,22 +6885,22 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475913</v>
       </c>
       <c r="U34" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
         <v>1297.436430018285</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1296.188421340954</v>
+        <v>449.5907528043157</v>
       </c>
       <c r="C35" t="n">
-        <v>1296.188421340954</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D35" t="n">
-        <v>1296.188421340954</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E35" t="n">
-        <v>870.211481488812</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F35" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
         <v>1017.95803136565</v>
@@ -6952,37 +6952,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W35" t="n">
-        <v>2137.770914794523</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X35" t="n">
-        <v>1726.050915962271</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y35" t="n">
-        <v>1320.713645917161</v>
+        <v>449.5907528043157</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>299.0104088577483</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K36" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L36" t="n">
-        <v>653.0519528483964</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M36" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N36" t="n">
         <v>1149.507219438093</v>
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>480.9992099285013</v>
+        <v>431.6727907347118</v>
       </c>
       <c r="C37" t="n">
-        <v>309.0266468074174</v>
+        <v>259.7002276136278</v>
       </c>
       <c r="D37" t="n">
-        <v>309.0266468074174</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E37" t="n">
-        <v>309.0266468074174</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F37" t="n">
-        <v>137.1648725819778</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>977.5688445445701</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M37" t="n">
-        <v>1093.544903181524</v>
+        <v>768.3405774192807</v>
       </c>
       <c r="N37" t="n">
         <v>1210.770261587371</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658704</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
         <v>2131.215415329222</v>
@@ -7125,22 +7125,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>1976.771053098196</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.635714724478</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.924247332507</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W37" t="n">
-        <v>1140.07184350502</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5079469508249</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y37" t="n">
-        <v>671.165178640567</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.75541829589047</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="C38" t="n">
-        <v>42.75541829589047</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D38" t="n">
-        <v>42.75541829589047</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E38" t="n">
-        <v>42.75541829589047</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F38" t="n">
-        <v>42.75541829589047</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
         <v>42.75541829589047</v>
@@ -7171,13 +7171,13 @@
         <v>42.75541829589047</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J38" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
         <v>709.585180084832</v>
@@ -7195,31 +7195,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2105.285553662104</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>2105.285553662104</v>
       </c>
       <c r="U38" t="n">
-        <v>2033.541816038187</v>
+        <v>2105.285553662104</v>
       </c>
       <c r="V38" t="n">
-        <v>1676.052401164436</v>
+        <v>2105.285553662104</v>
       </c>
       <c r="W38" t="n">
-        <v>1279.661051464783</v>
+        <v>2105.285553662104</v>
       </c>
       <c r="X38" t="n">
-        <v>867.9410526325303</v>
+        <v>1693.565554829851</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.6037825874205</v>
+        <v>1288.228284784742</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.75541829589047</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745214</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J39" t="n">
-        <v>404.4659091426544</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109026</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333023</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>459.2822744464944</v>
+        <v>680.7921867542079</v>
       </c>
       <c r="C40" t="n">
-        <v>287.3097113254104</v>
+        <v>680.7921867542079</v>
       </c>
       <c r="D40" t="n">
-        <v>287.3097113254104</v>
+        <v>680.7921867542079</v>
       </c>
       <c r="E40" t="n">
-        <v>287.3097113254104</v>
+        <v>514.5839809070615</v>
       </c>
       <c r="F40" t="n">
-        <v>115.4479370999708</v>
+        <v>342.7222066816219</v>
       </c>
       <c r="G40" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H40" t="n">
         <v>115.4479370999708</v>
@@ -7332,22 +7332,22 @@
         <v>42.75541829589047</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>899.647127896349</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M40" t="n">
-        <v>1428.745429307994</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N40" t="n">
-        <v>1543.240684449514</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
         <v>2088.252358880158</v>
@@ -7362,22 +7362,22 @@
         <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>1955.054117616189</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.918779242471</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V40" t="n">
-        <v>1393.2073118505</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1118.354908023013</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X40" t="n">
-        <v>875.7910114688179</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="Y40" t="n">
-        <v>649.44824315856</v>
+        <v>680.7921867542079</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1247.573895224666</v>
+        <v>913.5414949427932</v>
       </c>
       <c r="C41" t="n">
-        <v>820.673165237966</v>
+        <v>486.6407649560933</v>
       </c>
       <c r="D41" t="n">
-        <v>397.3805444229663</v>
+        <v>486.6407649560933</v>
       </c>
       <c r="E41" t="n">
-        <v>397.3805444229663</v>
+        <v>486.6407649560933</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589046</v>
+        <v>486.6407649560933</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589046</v>
+        <v>84.3088835737716</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103665</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.236059607205</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L41" t="n">
         <v>709.5851800848325</v>
@@ -7426,37 +7426,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V41" t="n">
-        <v>2079.142258348449</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W41" t="n">
-        <v>2079.142258348449</v>
+        <v>1325.261493775046</v>
       </c>
       <c r="X41" t="n">
-        <v>1667.422259516196</v>
+        <v>913.5414949427932</v>
       </c>
       <c r="Y41" t="n">
-        <v>1667.422259516196</v>
+        <v>913.5414949427932</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,34 +7481,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>86.44169614186397</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J42" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K42" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L42" t="n">
-        <v>519.5225649727759</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M42" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N42" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1422.910349236153</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.279192602594</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>918.093414295108</v>
+        <v>592.672652431039</v>
       </c>
       <c r="C43" t="n">
-        <v>746.120851174024</v>
+        <v>592.672652431039</v>
       </c>
       <c r="D43" t="n">
-        <v>582.8040783007947</v>
+        <v>429.3558795578097</v>
       </c>
       <c r="E43" t="n">
-        <v>416.5958724536483</v>
+        <v>423.1010292829092</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574695</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H43" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484806</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>166.4811349991141</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L43" t="n">
-        <v>652.364518782327</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.462820193971</v>
+        <v>1322.603833371155</v>
       </c>
       <c r="N43" t="n">
-        <v>1693.990998177372</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O43" t="n">
-        <v>2003.682813232011</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2135.941344988977</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T43" t="n">
-        <v>1896.448957083121</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U43" t="n">
-        <v>1616.313618709403</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V43" t="n">
-        <v>1334.602151317432</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W43" t="n">
-        <v>1334.602151317432</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X43" t="n">
-        <v>1334.602151317432</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y43" t="n">
-        <v>1108.259383007174</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1156.422365084228</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="C44" t="n">
-        <v>868.3799204932119</v>
+        <v>883.0321146557465</v>
       </c>
       <c r="D44" t="n">
-        <v>445.0872996782122</v>
+        <v>459.7394938407467</v>
       </c>
       <c r="E44" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L44" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.142363916481</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W44" t="n">
-        <v>1568.142363916481</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="X44" t="n">
-        <v>1156.422365084228</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="Y44" t="n">
-        <v>1156.422365084228</v>
+        <v>1309.932844642446</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,34 +7718,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186397</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J45" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K45" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5225649727759</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M45" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N45" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1422.910349236153</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
         <v>1668.279192602594</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>248.0623214879469</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C46" t="n">
-        <v>76.08975836686292</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D46" t="n">
-        <v>76.08975836686292</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E46" t="n">
-        <v>76.08975836686292</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F46" t="n">
-        <v>42.75541829589046</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>244.402851647335</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>730.2862354305479</v>
+        <v>582.2660249670174</v>
       </c>
       <c r="M46" t="n">
-        <v>846.2622940675013</v>
+        <v>698.242083603971</v>
       </c>
       <c r="N46" t="n">
-        <v>1358.790472050902</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O46" t="n">
-        <v>1838.946819122235</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563497</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657642</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283924</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V46" t="n">
-        <v>1181.987358891952</v>
+        <v>1414.924247332507</v>
       </c>
       <c r="W46" t="n">
-        <v>907.1349550644654</v>
+        <v>1140.07184350502</v>
       </c>
       <c r="X46" t="n">
-        <v>664.5710585102705</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.2282902000126</v>
+        <v>1089.955188520548</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575131</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,7 +8856,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>397.3818429150062</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.75768006497762</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575122</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>129.2956009356065</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713329</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.68878933440449</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9330,16 +9330,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>298.1370800999579</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>108.1301643813465</v>
+        <v>128.6661225012228</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>360.2014738739056</v>
       </c>
       <c r="K23" t="n">
-        <v>307.5560500126507</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>265.093125257513</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>267.2984471422154</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898344</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>307.5560500126507</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>265.093125257513</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.8462195622607</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>206.4250513711266</v>
+        <v>439.3959099530422</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630806</v>
       </c>
       <c r="N31" t="n">
-        <v>289.1611029510189</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.6437336927403</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891583</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>134.8781695713336</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.757680064976981</v>
+        <v>331.2468980066367</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713332</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219102</v>
+        <v>245.1087987454518</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>45.68878933440443</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.878169571334</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219101</v>
+        <v>231.3726567572037</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>209.3311033197066</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.878169571334</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>309.3842421978335</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>166.3999940502792</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>166.5548423742086</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>183.4059937603699</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.65337031553338</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>119.4019757827216</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
@@ -23554,16 +23554,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>4.397279550585267</v>
       </c>
       <c r="W14" t="n">
-        <v>2.64362240880746</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.5093809422442</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.2273312293431</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>25.86606685476465</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T17" t="n">
-        <v>197.6324432101524</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>81.8838966589494</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>76.07670746104688</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>83.90843673637778</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>283.0639612370503</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.0177446442482</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.1475900472408</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>148.7883649928804</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>42.14138550265932</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>393.097442778929</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>204.6173979730713</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>104.6020707778637</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>77.6789662041424</v>
       </c>
       <c r="X29" t="n">
-        <v>159.0583186785921</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>343.4197308699995</v>
+        <v>43.5370138166129</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>391.3699083181701</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>19.86474152349194</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>117.0514004031222</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>70.23769147899051</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161367</v>
+        <v>25.88186236051858</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>152.4255838033427</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>73.13492911430617</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648581</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>209.1077534289616</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>69.79406512668868</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>233.401281837299</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>158.3538220165235</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648581</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S43" t="n">
-        <v>151.0886445012246</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>137.4697025417265</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>8.902935664213373</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>137.1421598129224</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>190.522769154025</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125278</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125279</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434240.7741790584</v>
+        <v>434240.7741790586</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125278</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>313660.3156125277</v>
+        <v>313660.3156125278</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>516381.4902713695</v>
       </c>
       <c r="D2" t="n">
-        <v>516381.4902713695</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="E2" t="n">
-        <v>307066.8426620586</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="F2" t="n">
         <v>307066.8426620588</v>
       </c>
       <c r="G2" t="n">
-        <v>307066.8426620585</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="H2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620589</v>
       </c>
       <c r="I2" t="n">
-        <v>385385.0750974003</v>
+        <v>385385.0750974006</v>
       </c>
       <c r="J2" t="n">
-        <v>385385.0750974003</v>
+        <v>385385.0750974006</v>
       </c>
       <c r="K2" t="n">
-        <v>385385.0750974006</v>
+        <v>385385.0750974005</v>
       </c>
       <c r="L2" t="n">
         <v>385385.0750974005</v>
@@ -26349,10 +26349,10 @@
         <v>307066.8426620588</v>
       </c>
       <c r="N2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="O2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="P2" t="n">
         <v>307066.8426620588</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160773</v>
+        <v>79247.3252716078</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>325684.4054789671</v>
       </c>
       <c r="E4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269664</v>
       </c>
       <c r="F4" t="n">
-        <v>24095.49097269664</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="G4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="H4" t="n">
         <v>24095.49097269664</v>
@@ -26441,25 +26441,25 @@
         <v>70841.91069994375</v>
       </c>
       <c r="J4" t="n">
-        <v>70841.91069994376</v>
+        <v>70841.91069994375</v>
       </c>
       <c r="K4" t="n">
-        <v>70841.91069994376</v>
+        <v>70841.91069994371</v>
       </c>
       <c r="L4" t="n">
-        <v>70841.91069994378</v>
+        <v>70841.91069994372</v>
       </c>
       <c r="M4" t="n">
         <v>24095.49097269664</v>
       </c>
       <c r="N4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="O4" t="n">
-        <v>24095.49097269664</v>
+        <v>24095.49097269663</v>
       </c>
       <c r="P4" t="n">
-        <v>24095.49097269665</v>
+        <v>24095.49097269663</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650127</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361157</v>
       </c>
       <c r="J5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361157</v>
       </c>
       <c r="K5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
         <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157069.4847924024</v>
+        <v>157047.7711509061</v>
       </c>
       <c r="C6" t="n">
-        <v>157069.4847924024</v>
+        <v>157047.7711509061</v>
       </c>
       <c r="D6" t="n">
-        <v>157069.4847924024</v>
+        <v>157047.7711509062</v>
       </c>
       <c r="E6" t="n">
-        <v>-316988.0186493929</v>
+        <v>-317591.1618675817</v>
       </c>
       <c r="F6" t="n">
-        <v>239701.637272861</v>
+        <v>239098.4940546721</v>
       </c>
       <c r="G6" t="n">
-        <v>239701.6372728607</v>
+        <v>239098.494054672</v>
       </c>
       <c r="H6" t="n">
-        <v>239701.6372728608</v>
+        <v>239098.4940546721</v>
       </c>
       <c r="I6" t="n">
-        <v>200557.6594833633</v>
+        <v>200172.0669108284</v>
       </c>
       <c r="J6" t="n">
-        <v>258113.842663845</v>
+        <v>257728.2500913101</v>
       </c>
       <c r="K6" t="n">
-        <v>258113.8426638453</v>
+        <v>257728.2500913101</v>
       </c>
       <c r="L6" t="n">
-        <v>258113.8426638451</v>
+        <v>257728.25009131</v>
       </c>
       <c r="M6" t="n">
-        <v>160454.3120012532</v>
+        <v>159851.1687830643</v>
       </c>
       <c r="N6" t="n">
-        <v>239701.6372728609</v>
+        <v>239098.4940546721</v>
       </c>
       <c r="O6" t="n">
-        <v>239701.6372728608</v>
+        <v>239098.4940546721</v>
       </c>
       <c r="P6" t="n">
-        <v>239701.6372728609</v>
+        <v>239098.494054672</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="N3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="O3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="P3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644262</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="J4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="K4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>534.4427286986308</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208931</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777376</v>
+        <v>318.0018188777379</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596218</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357952</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M13" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N13" t="n">
         <v>136.4006738458228</v>
@@ -31937,22 +31937,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R14" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M16" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N16" t="n">
         <v>136.4006738458228</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R17" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M19" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N19" t="n">
         <v>136.4006738458228</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q20" t="n">
         <v>214.5854405596218</v>
@@ -32499,10 +32499,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357952</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32557,34 +32557,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L22" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M22" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N22" t="n">
         <v>136.4006738458228</v>
@@ -32648,22 +32648,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,10 +32736,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357952</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32794,7 +32794,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M24" t="n">
         <v>269.3899127906122</v>
@@ -32803,25 +32803,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L25" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M25" t="n">
         <v>139.7229738682065</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H26" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,10 +32973,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357952</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33031,7 +33031,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M27" t="n">
         <v>269.3899127906122</v>
@@ -33040,25 +33040,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q27" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L28" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M28" t="n">
         <v>139.7229738682065</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H29" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,10 +33210,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357952</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33268,7 +33268,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M30" t="n">
         <v>269.3899127906122</v>
@@ -33277,25 +33277,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q30" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L31" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M31" t="n">
         <v>139.7229738682065</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H32" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,10 +33447,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357952</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33505,7 +33505,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M33" t="n">
         <v>269.3899127906122</v>
@@ -33514,25 +33514,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q33" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L34" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M34" t="n">
         <v>139.7229738682065</v>
@@ -33596,22 +33596,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H35" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,16 +33663,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
         <v>285.7487894273646</v>
@@ -33684,10 +33684,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357952</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33742,7 +33742,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M36" t="n">
         <v>269.3899127906122</v>
@@ -33751,25 +33751,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q36" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M37" t="n">
         <v>139.7229738682065</v>
@@ -33833,22 +33833,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -33979,34 +33979,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551338</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
@@ -34067,25 +34067,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34216,34 +34216,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551338</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
@@ -34304,25 +34304,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34453,34 +34453,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551338</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
@@ -34541,25 +34541,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q11" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163657</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
@@ -35512,7 +35512,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L13" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>514.5293768917269</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N13" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>52.77642341282105</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q14" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163648</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P15" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136927</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116933</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622844</v>
       </c>
       <c r="L16" t="n">
-        <v>239.8960960790893</v>
+        <v>318.6049007742625</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N16" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297622</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q17" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977126</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301855</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P18" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q18" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>88.07039255557379</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L19" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>103.4889118870001</v>
+        <v>401.6259919869581</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297622</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q20" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L22" t="n">
         <v>110.6004951434828</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P22" t="n">
-        <v>193.5539478643227</v>
+        <v>214.089905984199</v>
       </c>
       <c r="Q22" t="n">
         <v>202.9212659517818</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9195310038328</v>
+        <v>499.4349253750858</v>
       </c>
       <c r="K23" t="n">
-        <v>524.5591934003232</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992007</v>
       </c>
       <c r="R23" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163655</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36460,7 +36460,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L25" t="n">
-        <v>377.8989422856982</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>288.4467871728106</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>524.5591934003232</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>344.9308271163655</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36697,7 +36697,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L28" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P28" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>403.0796710634409</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>517.9127799376084</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>473.427054169028</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398013</v>
       </c>
       <c r="N31" t="n">
-        <v>404.8128758212413</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>448.1044996477641</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37168,10 +37168,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L34" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P34" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675924</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
         <v>248.1734276171333</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>214.7158714301862</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392516</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L37" t="n">
         <v>490.7912967507202</v>
@@ -37475,16 +37475,16 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N37" t="n">
-        <v>118.4094529351994</v>
+        <v>446.8986708768592</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969608</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163659</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116929</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986308</v>
+        <v>362.2563327221725</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>149.1777012214045</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784338</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969608</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K42" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>247.847316531758</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
         <v>148.85927498986</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622837</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986307</v>
+        <v>348.5201907339244</v>
       </c>
       <c r="N43" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>312.8200152067067</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969608</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
         <v>89.79009951709449</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>247.847316531758</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
         <v>148.85927498986</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622837</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507201</v>
+        <v>419.9847373413164</v>
       </c>
       <c r="M46" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P46" t="n">
-        <v>251.8237775332554</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784338</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
